--- a/Table/Table_xls/z主角模型对照表.xlsx
+++ b/Table/Table_xls/z主角模型对照表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$36</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -22,6 +22,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -74,12 +75,96 @@
         </r>
       </text>
     </comment>
+    <comment ref="B34" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+WDD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+阴曹地府</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+盘丝洞</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+DT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+方寸</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Administrator:
+神木林</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>编号</t>
   </si>
@@ -184,6 +269,15 @@
   </si>
   <si>
     <t>magic3</t>
+  </si>
+  <si>
+    <t>juese-wutianji</t>
+  </si>
+  <si>
+    <t>juese-taoyaoyao</t>
+  </si>
+  <si>
+    <t>juese-humeiren</t>
   </si>
 </sst>
 </file>
@@ -191,12 +285,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +313,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +395,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,22 +425,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -272,14 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -288,75 +456,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,25 +471,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +621,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,31 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,116 +673,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -565,18 +683,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -584,7 +696,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +719,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,25 +775,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -670,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,157 +809,196 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1178,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1216,28 +1382,28 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1260,31 +1426,31 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1307,31 +1473,31 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1354,31 +1520,31 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1401,31 +1567,31 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1448,31 +1614,31 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1495,31 +1661,31 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1542,31 +1708,31 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1589,31 +1755,31 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1636,31 +1802,31 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1683,31 +1849,31 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1730,31 +1896,31 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1777,31 +1943,31 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="4" t="s">
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1815,40 +1981,40 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1871,31 +2037,31 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1918,31 +2084,31 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1965,78 +2131,78 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:15">
+      <c r="A18" s="2">
         <v>127</v>
       </c>
-      <c r="B18">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="2">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2056,31 +2222,31 @@
       <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2100,75 +2266,75 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:15">
+      <c r="A21" s="2">
         <v>130</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2188,31 +2354,31 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2232,31 +2398,31 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="3" t="s">
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2276,174 +2442,588 @@
       <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:15">
+      <c r="G24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:15">
       <c r="A25" s="1">
         <v>134</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>14</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:15">
+      <c r="G25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:15">
       <c r="A26" s="1">
         <v>135</v>
       </c>
-      <c r="B26" s="2">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:15">
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:15">
       <c r="A27" s="1">
         <v>136</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>13</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="6" t="s">
+      <c r="G27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:15">
+      <c r="A28" s="2">
+        <v>137</v>
+      </c>
+      <c r="B28" s="2">
+        <v>15</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:15">
+      <c r="A29" s="2">
+        <v>138</v>
+      </c>
+      <c r="B29" s="2">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:15">
+      <c r="A30" s="2">
+        <v>139</v>
+      </c>
+      <c r="B30" s="2">
+        <v>14</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:15">
+      <c r="A31" s="11">
+        <v>140</v>
+      </c>
+      <c r="B31" s="12">
+        <v>11</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" spans="1:15">
+      <c r="A32" s="11">
+        <v>141</v>
+      </c>
+      <c r="B32" s="15">
+        <v>12</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4">
+        <v>4</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:15">
+      <c r="A33" s="11">
+        <v>142</v>
+      </c>
+      <c r="B33" s="16">
+        <v>24</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:15">
+      <c r="A34" s="2">
+        <v>143</v>
+      </c>
+      <c r="B34" s="17">
+        <v>23</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:15">
+      <c r="A35" s="2">
+        <v>144</v>
+      </c>
+      <c r="B35" s="17">
+        <v>14</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:15">
+      <c r="A36" s="2">
+        <v>145</v>
+      </c>
+      <c r="B36" s="19">
+        <v>22</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="8" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O27"/>
+  <autoFilter ref="A1:O36"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
